--- a/biology/Histoire de la zoologie et de la botanique/James_Edward_Hepburn/James_Edward_Hepburn.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Edward_Hepburn/James_Edward_Hepburn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Edward Hepburn est un juriste et un ornithologue britannique, né en 1810 ou 1811 et mort en 1869.
 Il émigre aux États-Unis d'Amérique vers 1852 et s’installe en Californie. Il voyage beaucoup et explore les côtes du Pacifique et dans les montagnes Rocheuses. Il fait commerce des oiseaux qu’il récolte. Sir William Jardine (1800-1874) et Spencer Fullerton Baird (1823-1887) étudient certaines de ses captures. Il est fréquemment cité dans A History of North American Birds par Baird, Thomas Mayo Brewer (1814-1880) et Robert Ridgway (1850-1929).
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mearns Barbara &amp; Mearns Richard (1998). The Bird Collectors. Academic Press (Londres) : xvii + 472 p.
  Portail de l’histoire de la zoologie et de la botanique   Portail de l'ornithologie                    </t>
